--- a/IP2_Template_Milestone_1.xlsx
+++ b/IP2_Template_Milestone_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aidac\OneDrive\Escritorio\Aida\Estudis\UVic_Enginyeria Mecatronica\3_Curs\2n_Semestre\Project_II\balance-board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC21E81-B143-4565-A03F-73FE67771CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26496B0F-7CE8-4F45-8107-D200737F1FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Specifications" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="106">
   <si>
     <t>TECHNICAL SPECIFICATIONS</t>
   </si>
@@ -351,6 +351,12 @@
   </si>
   <si>
     <t>Depends on the Rasberry pi 3</t>
+  </si>
+  <si>
+    <t>L298N - H bridge</t>
+  </si>
+  <si>
+    <t>AMazon</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AMJ55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
@@ -1801,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:AMJ30"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1814,7 +1820,7 @@
     <col min="5" max="5" width="17.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" style="1"/>
     <col min="7" max="7" width="15.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="130.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.44140625" style="1" customWidth="1"/>
     <col min="9" max="1024" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
@@ -1839,7 +1845,7 @@
       </c>
       <c r="F5" s="4">
         <f>SUM(F9:F30)</f>
-        <v>250.08999999999997</v>
+        <v>254.07999999999998</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
@@ -2173,15 +2179,25 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="C21" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="15">
+        <v>1</v>
+      </c>
+      <c r="E21" s="15">
+        <v>3.99</v>
+      </c>
       <c r="F21" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+        <v>3.99</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14">
@@ -2331,10 +2347,11 @@
     <hyperlink ref="H17" r:id="rId9" xr:uid="{98192673-9EA9-41EE-AEDA-1FC77EAECCE3}"/>
     <hyperlink ref="H18" r:id="rId10" xr:uid="{EA66D1B6-2A41-4758-A17F-1C49B5BE2EE0}"/>
     <hyperlink ref="H19" r:id="rId11" xr:uid="{DC448955-F98A-468B-88E2-515EC63AFBA8}"/>
+    <hyperlink ref="H21" r:id="rId12" xr:uid="{D6D33C8E-BBF5-4703-941B-1A3B7224AE41}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
-  <drawing r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
 

--- a/IP2_Template_Milestone_1.xlsx
+++ b/IP2_Template_Milestone_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aidac\OneDrive\Escritorio\Aida\Estudis\UVic_Enginyeria Mecatronica\3_Curs\2n_Semestre\Project_II\balance-board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26496B0F-7CE8-4F45-8107-D200737F1FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F195484-025E-4271-B1BA-439871B6A8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="105">
   <si>
     <t>TECHNICAL SPECIFICATIONS</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Engineering Company</t>
   </si>
   <si>
-    <t>Omnirobot Group</t>
-  </si>
-  <si>
     <t>Revision 1</t>
   </si>
   <si>
@@ -284,30 +281,15 @@
     <t>https://www.amazon.com/</t>
   </si>
   <si>
-    <t>Date: 21/02/2023</t>
-  </si>
-  <si>
-    <t>4.04 cm x 1.88 cm x 4.57 cm (height)</t>
-  </si>
-  <si>
     <t>Carry load up and down 0,22125 kg</t>
   </si>
   <si>
-    <t xml:space="preserve">20 kg </t>
-  </si>
-  <si>
-    <t>4 wheels 65 mm diameter</t>
-  </si>
-  <si>
     <t>Metraquilat (250 x 250 x 3 mm), 3D printed parts, commercial wheels</t>
   </si>
   <si>
     <t>2 DC Motors , 170 rpm, Torque = 20.5 kg·cm</t>
   </si>
   <si>
-    <t>0 to 270 degrees</t>
-  </si>
-  <si>
     <t>3D Printer</t>
   </si>
   <si>
@@ -356,7 +338,22 @@
     <t>L298N - H bridge</t>
   </si>
   <si>
-    <t>AMazon</t>
+    <t xml:space="preserve">5 kg </t>
+  </si>
+  <si>
+    <t>40 cm x 25 cm x 35 cm (height)</t>
+  </si>
+  <si>
+    <t>3 wheels 65 mm diameter</t>
+  </si>
+  <si>
+    <t>2 for each part</t>
+  </si>
+  <si>
+    <t>Date: 28/02/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battery </t>
   </si>
 </sst>
 </file>
@@ -509,9 +506,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -526,6 +520,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1425,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AMJ55"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1455,29 +1452,29 @@
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="20"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
@@ -1485,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
@@ -1494,7 +1491,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
@@ -1520,72 +1517,72 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="20"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="28.2" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>88</v>
+        <v>15</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
@@ -1594,72 +1591,72 @@
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="22"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="42" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="42" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
@@ -1672,72 +1669,72 @@
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C41" s="22"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
@@ -1779,12 +1776,12 @@
   <sheetData>
     <row r="2" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.3">
@@ -1808,7 +1805,7 @@
   <dimension ref="A2:AMJ30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1826,513 +1823,523 @@
   <sheetData>
     <row r="2" spans="2:8" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="2:8" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C3" s="9"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="2:8" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C3" s="10"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="F5" s="4">
         <f>SUM(F9:F30)</f>
-        <v>254.07999999999998</v>
+        <v>293.07</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="12">
+        <v>34</v>
+      </c>
+      <c r="F6" s="11">
         <v>300</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="4" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="14">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>2</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>21.59</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <f t="shared" ref="F9:F30" si="0">E9*D9</f>
         <v>43.18</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>59</v>
+      <c r="G9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <f t="shared" ref="B10:B30" si="1">B9+1</f>
         <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="15">
+        <v>63</v>
+      </c>
+      <c r="D10" s="14">
         <v>1</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>21.99</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <f t="shared" si="0"/>
         <v>21.99</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>59</v>
+      <c r="G10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="15">
+        <v>64</v>
+      </c>
+      <c r="D11" s="14">
         <v>1</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>59.45</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <f t="shared" si="0"/>
         <v>59.45</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>78</v>
+      <c r="G11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="15">
+        <v>65</v>
+      </c>
+      <c r="D12" s="14">
         <v>1</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>31.7</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <f t="shared" si="0"/>
         <v>31.7</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>78</v>
+      <c r="G12" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="15">
+        <v>66</v>
+      </c>
+      <c r="D13" s="14">
         <v>1</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>6.99</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <f t="shared" si="0"/>
         <v>6.99</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>59</v>
+      <c r="G13" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="15">
+        <v>67</v>
+      </c>
+      <c r="D14" s="14">
         <v>1</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="14">
         <v>27.54</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="14">
         <f t="shared" si="0"/>
         <v>27.54</v>
       </c>
-      <c r="G14" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>48</v>
+      <c r="G14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="15">
+        <v>68</v>
+      </c>
+      <c r="D15" s="14">
         <v>1</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="14">
         <v>16.88</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="14">
         <f t="shared" si="0"/>
         <v>16.88</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>59</v>
+      <c r="G15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="15">
+        <v>70</v>
+      </c>
+      <c r="D16" s="14">
         <v>1</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="14">
         <v>4.82</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="14">
         <f t="shared" si="0"/>
         <v>4.82</v>
       </c>
-      <c r="G16" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>79</v>
+      <c r="G16" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="15">
+        <v>72</v>
+      </c>
+      <c r="D17" s="14">
         <v>1</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="14">
         <v>10.26</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="14">
         <f t="shared" si="0"/>
         <v>10.26</v>
       </c>
-      <c r="G17" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>80</v>
+      <c r="G17" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="15">
+        <v>74</v>
+      </c>
+      <c r="D18" s="14">
         <v>1</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="14">
         <v>4.29</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="14">
         <f t="shared" si="0"/>
         <v>4.29</v>
       </c>
-      <c r="G18" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>59</v>
+      <c r="G18" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="15">
+        <v>76</v>
+      </c>
+      <c r="D19" s="14">
         <v>1</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="14">
         <v>19.989999999999998</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="14">
         <f t="shared" si="0"/>
         <v>19.989999999999998</v>
       </c>
-      <c r="G19" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>80</v>
+      <c r="G19" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="14">
+      <c r="B20" s="13">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="15">
+        <v>75</v>
+      </c>
+      <c r="D20" s="14">
         <v>1</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="14">
         <v>3</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="15">
+        <v>98</v>
+      </c>
+      <c r="D21" s="14">
         <v>1</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="14">
         <v>3.99</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="14">
         <f t="shared" si="0"/>
         <v>3.99</v>
       </c>
-      <c r="G21" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>59</v>
+      <c r="G21" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15">
+      <c r="C22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="14">
+        <v>1</v>
+      </c>
+      <c r="E22" s="14">
+        <v>38.99</v>
+      </c>
+      <c r="F22" s="14">
+        <f t="shared" si="0"/>
+        <v>38.99</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="13">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="14">
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="13">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15">
+        <v>16</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="14">
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="13">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15">
+        <v>17</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="14">
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="13">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15">
+        <v>18</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="14">
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="13">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15">
+        <v>19</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="14">
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="13">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15">
+        <v>20</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="14">
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="13">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15">
+        <v>21</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="14">
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="13">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15">
+        <v>22</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="14">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2348,10 +2355,11 @@
     <hyperlink ref="H18" r:id="rId10" xr:uid="{EA66D1B6-2A41-4758-A17F-1C49B5BE2EE0}"/>
     <hyperlink ref="H19" r:id="rId11" xr:uid="{DC448955-F98A-468B-88E2-515EC63AFBA8}"/>
     <hyperlink ref="H21" r:id="rId12" xr:uid="{D6D33C8E-BBF5-4703-941B-1A3B7224AE41}"/>
+    <hyperlink ref="H22" r:id="rId13" xr:uid="{9AA53417-BFA0-4FF5-9FFD-BB44B5667B47}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
-  <drawing r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -2372,105 +2380,105 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="C4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C5" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="16" t="s">
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="16" t="s">
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="16" t="s">
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="16" t="s">
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="16" t="s">
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="11" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
